--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H2">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I2">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J2">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>326.095962204284</v>
+        <v>10.03932721051167</v>
       </c>
       <c r="R2">
-        <v>2934.863659838556</v>
+        <v>90.35394489460501</v>
       </c>
       <c r="S2">
-        <v>0.1699799788145789</v>
+        <v>0.01662119762139662</v>
       </c>
       <c r="T2">
-        <v>0.1699799788145789</v>
+        <v>0.01662119762139662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H3">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I3">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J3">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>801.0728632949553</v>
+        <v>149.7076186664147</v>
       </c>
       <c r="R3">
-        <v>7209.655769654597</v>
+        <v>1347.368567997732</v>
       </c>
       <c r="S3">
-        <v>0.4175652694727591</v>
+        <v>0.2478572381501592</v>
       </c>
       <c r="T3">
-        <v>0.4175652694727591</v>
+        <v>0.2478572381501592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H4">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I4">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J4">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>410.690960480159</v>
+        <v>56.827882802495</v>
       </c>
       <c r="R4">
-        <v>3696.218644321431</v>
+        <v>511.450945222455</v>
       </c>
       <c r="S4">
-        <v>0.2140757594478407</v>
+        <v>0.09408473801679142</v>
       </c>
       <c r="T4">
-        <v>0.2140757594478408</v>
+        <v>0.09408473801679142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.297477</v>
       </c>
       <c r="I5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>1.639653957036</v>
+        <v>0.270109281265</v>
       </c>
       <c r="R5">
-        <v>14.756885613324</v>
+        <v>2.430983531385</v>
       </c>
       <c r="S5">
-        <v>0.0008546819868490789</v>
+        <v>0.0004471952800361164</v>
       </c>
       <c r="T5">
-        <v>0.0008546819868490793</v>
+        <v>0.0004471952800361164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.297477</v>
       </c>
       <c r="I6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>4.027901116276</v>
@@ -818,10 +818,10 @@
         <v>36.251110046484</v>
       </c>
       <c r="S6">
-        <v>0.002099573824170517</v>
+        <v>0.006668628190838231</v>
       </c>
       <c r="T6">
-        <v>0.002099573824170518</v>
+        <v>0.00666862819083823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.297477</v>
       </c>
       <c r="I7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>2.065008882411</v>
+        <v>1.528960881315</v>
       </c>
       <c r="R7">
-        <v>18.585079941699</v>
+        <v>13.760647931835</v>
       </c>
       <c r="S7">
-        <v>0.001076401448553501</v>
+        <v>0.002531360959837282</v>
       </c>
       <c r="T7">
-        <v>0.001076401448553501</v>
+        <v>0.002531360959837282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H8">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I8">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J8">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>79.06006291600799</v>
+        <v>17.68933177112833</v>
       </c>
       <c r="R8">
-        <v>711.5405662440719</v>
+        <v>159.203985940155</v>
       </c>
       <c r="S8">
-        <v>0.04121065384772728</v>
+        <v>0.0292866118409332</v>
       </c>
       <c r="T8">
-        <v>0.0412106538477273</v>
+        <v>0.0292866118409332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H9">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I9">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J9">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>194.215440584728</v>
+        <v>263.7853792117614</v>
       </c>
       <c r="R9">
-        <v>1747.938965262552</v>
+        <v>2374.068412905852</v>
       </c>
       <c r="S9">
-        <v>0.1012362626415325</v>
+        <v>0.4367253726846378</v>
       </c>
       <c r="T9">
-        <v>0.1012362626415326</v>
+        <v>0.4367253726846377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H10">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I10">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J10">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>99.56962654525799</v>
+        <v>100.130940217945</v>
       </c>
       <c r="R10">
-        <v>896.126638907322</v>
+        <v>901.178461961505</v>
       </c>
       <c r="S10">
-        <v>0.05190141851598841</v>
+        <v>0.1657776572553702</v>
       </c>
       <c r="T10">
-        <v>0.05190141851598842</v>
+        <v>0.1657776572553701</v>
       </c>
     </row>
   </sheetData>
